--- a/data/onsGasValue.xlsx
+++ b/data/onsGasValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054C692-7EFC-294B-8F5E-D96601A92370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02513324-AFE5-FC4E-84E6-9CF50057C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25980" windowHeight="16680" xr2:uid="{7BDC55F2-C546-4ED6-B54F-3B14B4E2C8DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7BDC55F2-C546-4ED6-B54F-3B14B4E2C8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure_4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Figure 4: The value of gas imports has increased substantially in recent months, while the quantity imported is comparable to previous years</t>
   </si>
@@ -57,16 +57,19 @@
     <t>Natural gas, liquified</t>
   </si>
   <si>
-    <t>Quantity (Tj)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Source: HM Revenue and Customs – Overseas Trade Statistics</t>
   </si>
   <si>
-    <t>Value (£ m)</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
   </si>
 </sst>
 </file>
@@ -220,9 +223,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -262,24 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,10 +275,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{221EEC23-FAC9-46A6-B2A3-804F1FA0AC3A}"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -302,6 +307,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF07470"/>
+      <color rgb="FFDC1C13"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -337,8 +348,8 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" b="0"/>
-              <a:t>LNG imports</a:t>
+              <a:rPr lang="en-GB" sz="1500" b="0"/>
+              <a:t>LNG imports (index 2018=100)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -367,7 +378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Value (£ m)</c:v>
+                  <c:v>Value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,7 +526,7 @@
             <c:numRef>
               <c:f>Figure_4!$D$9:$D$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>346.90549110193439</c:v>
@@ -656,7 +667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity (Tj)</c:v>
+                  <c:v>Quantity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -804,7 +815,7 @@
             <c:numRef>
               <c:f>Figure_4!$E$9:$E$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>280.04128788349851</c:v>
@@ -945,7 +956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Value (£ m)</c:v>
+                  <c:v>Value </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1095,7 +1106,7 @@
             <c:numRef>
               <c:f>Figure_4!$D$9:$D$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>346.90549110193439</c:v>
@@ -1236,7 +1247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity (Tj)</c:v>
+                  <c:v>Quantity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,7 +1397,7 @@
             <c:numRef>
               <c:f>Figure_4!$E$9:$E$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>280.04128788349851</c:v>
@@ -1559,7 +1570,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1300"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1593,7 +1604,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1300" b="0"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1609,7 +1638,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1300"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1642,7 +1671,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="1300"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1653,6 +1682,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1705,9 +1739,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Pipeline imports</a:t>
+              <a:rPr lang="en-GB" sz="1500">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pipeline imports (index</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2018=100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1755,7 +1806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Value (£ m)</c:v>
+                  <c:v>Value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1905,7 +1956,7 @@
             <c:numRef>
               <c:f>Figure_4!$B$9:$B$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>126.89506710671348</c:v>
@@ -2046,7 +2097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quantity (Tj)</c:v>
+                  <c:v>Quantity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2196,7 +2247,7 @@
             <c:numRef>
               <c:f>Figure_4!$C$9:$C$48</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>139.06331135336714</c:v>
@@ -2214,7 +2265,7 @@
                   <c:v>56.946853070688455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.499088407939169</c:v>
+                  <c:v>89.499088407939198</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>67.307938636086462</c:v>
@@ -2369,12 +2420,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2413,7 +2461,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1300">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2429,12 +2536,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2471,12 +2575,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3091,16 +3192,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>67734</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434021</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592666</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600983</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3127,16 +3228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>260803</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3465,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F9B24-D0DA-4F7F-AC9B-2D9659027B5A}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3496,56 +3597,56 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>43466</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="20">
         <v>126.89506710671348</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>139.06331135336714</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <v>346.90549110193439</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="20">
         <v>280.04128788349851</v>
       </c>
     </row>
@@ -3553,16 +3654,16 @@
       <c r="A10" s="4">
         <v>43497</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="21">
         <v>78.876913226449176</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="21">
         <v>104.98503178875302</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="21">
         <v>216.7389354254164</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>189.41189638233575</v>
       </c>
       <c r="F10" s="5"/>
@@ -3571,16 +3672,16 @@
       <c r="A11" s="4">
         <v>43525</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="21">
         <v>60.007520707211363</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="21">
         <v>95.601424492028073</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="21">
         <v>326.83139357406571</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <v>316.45421646292175</v>
       </c>
       <c r="F11" s="5"/>
@@ -3589,16 +3690,16 @@
       <c r="A12" s="4">
         <v>43556</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="21">
         <v>38.63760313282102</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="21">
         <v>67.699114026092161</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="21">
         <v>261.47833591710827</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <v>339.65502232281654</v>
       </c>
       <c r="F12" s="5"/>
@@ -3607,16 +3708,16 @@
       <c r="A13" s="4">
         <v>43586</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="21">
         <v>29.1259094651132</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="21">
         <v>56.946853070688455</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>431.50771645582</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <v>604.81277437166557</v>
       </c>
       <c r="F13" s="5"/>
@@ -3625,16 +3726,16 @@
       <c r="A14" s="4">
         <v>43617</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="21">
         <v>40.156961890835085</v>
       </c>
-      <c r="C14" s="18">
-        <v>89.499088407939169</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="C14" s="21">
+        <v>89.499088407939198</v>
+      </c>
+      <c r="D14" s="21">
         <v>75.181430328164339</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <v>138.11543196826304</v>
       </c>
       <c r="F14" s="5"/>
@@ -3643,16 +3744,16 @@
       <c r="A15" s="4">
         <v>43647</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="21">
         <v>32.020572749715249</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="21">
         <v>67.307938636086462</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <v>49.774076051387716</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>113.67598960341248</v>
       </c>
       <c r="F15" s="5"/>
@@ -3661,16 +3762,16 @@
       <c r="A16" s="4">
         <v>43678</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="21">
         <v>23.123014931748695</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="21">
         <v>51.905752809367961</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <v>21.43779733324785</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>35.477733145962617</v>
       </c>
       <c r="F16" s="5"/>
@@ -3679,16 +3780,16 @@
       <c r="A17" s="4">
         <v>43709</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="21">
         <v>11.584061178190948</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="21">
         <v>28.530952327992125</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="21">
         <v>149.4783003348808</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="21">
         <v>214.61740309161681</v>
       </c>
       <c r="F17" s="5"/>
@@ -3697,16 +3798,16 @@
       <c r="A18" s="4">
         <v>43739</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="21">
         <v>11.846915612020817</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="21">
         <v>27.918877894218504</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="21">
         <v>231.19074753078456</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <v>344.15689395729441</v>
       </c>
       <c r="F18" s="5"/>
@@ -3715,16 +3816,16 @@
       <c r="A19" s="4">
         <v>43770</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="21">
         <v>62.694128991029935</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="21">
         <v>110.9539080338988</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <v>161.16837670911525</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>240.75810523435848</v>
       </c>
       <c r="F19" s="5"/>
@@ -3733,16 +3834,16 @@
       <c r="A20" s="4">
         <v>43800</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="21">
         <v>55.003696602235593</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="21">
         <v>102.22471415433633</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="21">
         <v>180.97158703082675</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="21">
         <v>230.08294885028167</v>
       </c>
       <c r="F20" s="5"/>
@@ -3751,16 +3852,16 @@
       <c r="A21" s="4">
         <v>43831</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="21">
         <v>36.5801222744592</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="21">
         <v>80.599618182138926</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <v>538.01245688759468</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <v>694.11398937956255</v>
       </c>
       <c r="F21" s="5"/>
@@ -3769,16 +3870,16 @@
       <c r="A22" s="4">
         <v>43862</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="21">
         <v>32.763002535540373</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="21">
         <v>86.359560748387551</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="21">
         <v>159.16449758097588</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <v>318.12065513424778</v>
       </c>
       <c r="F22" s="5"/>
@@ -3787,16 +3888,16 @@
       <c r="A23" s="4">
         <v>43891</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="21">
         <v>35.605837576404049</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="21">
         <v>96.704078885502966</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="21">
         <v>260.81903296993693</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="21">
         <v>485.10278444491428</v>
       </c>
       <c r="F23" s="5"/>
@@ -3805,16 +3906,16 @@
       <c r="A24" s="4">
         <v>43922</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="21">
         <v>9.3861746520911069</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="21">
         <v>41.388197087967676</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="21">
         <v>216.61157985222172</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <v>537.64285980773775</v>
       </c>
       <c r="F24" s="5"/>
@@ -3823,16 +3924,16 @@
       <c r="A25" s="4">
         <v>43952</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="21">
         <v>7.31316726198291</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="21">
         <v>37.510498457158242</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="21">
         <v>130.31722818130098</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>404.60633495417295</v>
       </c>
       <c r="F25" s="5"/>
@@ -3841,16 +3942,16 @@
       <c r="A26" s="4">
         <v>43983</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="21">
         <v>9.199270550600037</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="21">
         <v>43.102925915216183</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="21">
         <v>85.282794515129055</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="21">
         <v>298.56114213229534</v>
       </c>
       <c r="F26" s="5"/>
@@ -3859,16 +3960,16 @@
       <c r="A27" s="4">
         <v>44013</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="21">
         <v>12.129938675142327</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="21">
         <v>57.971272386162205</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <v>19.017298809379383</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="21">
         <v>197.654549750656</v>
       </c>
       <c r="F27" s="5"/>
@@ -3877,16 +3978,16 @@
       <c r="A28" s="4">
         <v>44044</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="22">
         <v>14.037396538264087</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="23">
         <v>42.994317218696956</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="23">
         <v>16.184611533332834</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="22">
         <v>95.718247503451025</v>
       </c>
     </row>
@@ -3894,16 +3995,16 @@
       <c r="A29" s="4">
         <v>44075</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="22">
         <v>28.539289365046333</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="23">
         <v>60.658877418671949</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="23">
         <v>41.133767706595691</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="22">
         <v>191.72998719080724</v>
       </c>
     </row>
@@ -3911,16 +4012,16 @@
       <c r="A30" s="4">
         <v>44105</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="22">
         <v>63.631442626282002</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="23">
         <v>104.81475544251524</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="23">
         <v>54.716324952340983</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="22">
         <v>150.72564698859608</v>
       </c>
     </row>
@@ -3928,16 +4029,16 @@
       <c r="A31" s="4">
         <v>44136</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="22">
         <v>67.341609888172329</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="23">
         <v>113.49700827527703</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="23">
         <v>124.31043377136918</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="22">
         <v>160.66956013480743</v>
       </c>
     </row>
@@ -3945,16 +4046,16 @@
       <c r="A32" s="4">
         <v>44166</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="22">
         <v>96.147242087956073</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="23">
         <v>132.96005485659586</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="23">
         <v>232.82905427046632</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="22">
         <v>303.86389921776873</v>
       </c>
     </row>
@@ -3962,16 +4063,16 @@
       <c r="A33" s="4">
         <v>44197</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="22">
         <v>132.4886923482525</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="23">
         <v>142.7679723998917</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="23">
         <v>214.42780850241243</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="22">
         <v>257.13894865130391</v>
       </c>
     </row>
@@ -3979,16 +4080,16 @@
       <c r="A34" s="4">
         <v>44228</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="22">
         <v>75.510229088632528</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="23">
         <v>110.9511467958517</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="23">
         <v>252.82055983394218</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="22">
         <v>253.31360137294649</v>
       </c>
     </row>
@@ -3996,16 +4097,16 @@
       <c r="A35" s="4">
         <v>44256</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="22">
         <v>72.04402322444669</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="23">
         <v>101.84366330383666</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="23">
         <v>316.17725000430761</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="22">
         <v>362.11463605725584</v>
       </c>
     </row>
@@ -4013,16 +4114,16 @@
       <c r="A36" s="4">
         <v>44287</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="22">
         <v>69.28461247041399</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="23">
         <v>92.794165810810696</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="23">
         <v>312.05762319351663</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="22">
         <v>384.38024648369003</v>
       </c>
     </row>
@@ -4030,16 +4131,16 @@
       <c r="A37" s="4">
         <v>44317</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="22">
         <v>94.255188705752758</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="23">
         <v>89.528541613774891</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="23">
         <v>324.89730993301805</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="22">
         <v>389.63823357500837</v>
       </c>
     </row>
@@ -4047,16 +4148,16 @@
       <c r="A38" s="4">
         <v>44348</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="22">
         <v>66.161170695082916</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="23">
         <v>57.756816231170845</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="23">
         <v>299.27914845787114</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="22">
         <v>279.44435462809815</v>
       </c>
     </row>
@@ -4064,16 +4165,16 @@
       <c r="A39" s="4">
         <v>44378</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="22">
         <v>110.79839042474687</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="23">
         <v>78.753270341312032</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="23">
         <v>145.82567604147317</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="22">
         <v>124.91325813632463</v>
       </c>
     </row>
@@ -4081,16 +4182,16 @@
       <c r="A40" s="4">
         <v>44409</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="22">
         <v>120.52490111028399</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="23">
         <v>70.492566517074039</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="23">
         <v>23.635279506941519</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="22">
         <v>25.22540448446108</v>
       </c>
     </row>
@@ -4098,16 +4199,16 @@
       <c r="A41" s="4">
         <v>44440</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="22">
         <v>169.39036717260859</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="23">
         <v>74.702534126217728</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="23">
         <v>46.45813254435334</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="22">
         <v>31.294225914364951</v>
       </c>
     </row>
@@ -4115,16 +4216,16 @@
       <c r="A42" s="4">
         <v>44470</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="22">
         <v>376.20196473133285</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="23">
         <v>112.23880413848222</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="23">
         <v>403.66806136572563</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="22">
         <v>152.22792901468705</v>
       </c>
     </row>
@@ -4132,16 +4233,16 @@
       <c r="A43" s="4">
         <v>44501</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="22">
         <v>354.4100248651431</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="23">
         <v>121.12354776136461</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="23">
         <v>682.34017510876356</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="22">
         <v>173.23003071719043</v>
       </c>
     </row>
@@ -4149,16 +4250,16 @@
       <c r="A44" s="4">
         <v>44531</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="22">
         <v>553.71076368051683</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="23">
         <v>132.56703864122542</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="23">
         <v>1376.2959620310289</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="22">
         <v>312.34532588824914</v>
       </c>
     </row>
@@ -4166,16 +4267,16 @@
       <c r="A45" s="4">
         <v>44562</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="22">
         <v>325.58395694380079</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="23">
         <v>108.81394854739703</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="23">
         <v>3139.5984229362525</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="22">
         <v>690.11951101217494</v>
       </c>
     </row>
@@ -4183,16 +4284,16 @@
       <c r="A46" s="4">
         <v>44593</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="22">
         <v>300.03131892136446</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="23">
         <v>103.67344371638096</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="23">
         <v>2041.2241815633101</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="22">
         <v>474.48732138637746</v>
       </c>
     </row>
@@ -4200,16 +4301,16 @@
       <c r="A47" s="4">
         <v>44621</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="22">
         <v>526.6391970868026</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="23">
         <v>102.89109293636956</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="23">
         <v>2288.3323808054279</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="22">
         <v>539.40381291116887</v>
       </c>
     </row>
@@ -4217,16 +4318,16 @@
       <c r="A48" s="11">
         <v>44652</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="24">
         <v>257.0843056553087</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="25">
         <v>80.433943899312979</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="25">
         <v>2971.5693571052079</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="24">
         <v>598.90810958699683</v>
       </c>
     </row>
@@ -4246,7 +4347,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4278,6 +4379,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E582C2158F731549A732E166D04E29A6" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0725721e1bc7492303b995282d03d476">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="504beab7-6340-4616-8ebb-d6894ea89012" xmlns:ns3="58d49d88-32fd-46a3-b128-4e1e8884930a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f9d1731e4f3aab143e04c11cbf9f66a" ns2:_="" ns3:_="">
     <xsd:import namespace="504beab7-6340-4616-8ebb-d6894ea89012"/>
@@ -4456,12 +4563,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4472,6 +4573,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D259CB-9554-44A9-83B8-22980E604912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC634B8E-A66D-48C8-8AB9-81F4199E8FE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4490,15 +4600,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D259CB-9554-44A9-83B8-22980E604912}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{154FE464-8982-4272-893C-6D603CD02C06}">
   <ds:schemaRefs>
